--- a/api_ia/clustering_model/df_kmeans_2.xlsx
+++ b/api_ia/clustering_model/df_kmeans_2.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/api_ia/clustering_model/df_kmeans_2.xlsx
+++ b/api_ia/clustering_model/df_kmeans_2.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/api_ia/clustering_model/df_kmeans_2.xlsx
+++ b/api_ia/clustering_model/df_kmeans_2.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/api_ia/clustering_model/df_kmeans_2.xlsx
+++ b/api_ia/clustering_model/df_kmeans_2.xlsx
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
